--- a/ML/bank-statement/LANDCRAFT-RECREATIONS/LANDCRAFT-RECREATIONS/Landcraft Recreations Bank Statement Apr to May 2020/ExcelData/Landcraft Recreations Bank Statement Apr to May 2020.xlsx
+++ b/ML/bank-statement/LANDCRAFT-RECREATIONS/LANDCRAFT-RECREATIONS/Landcraft Recreations Bank Statement Apr to May 2020/ExcelData/Landcraft Recreations Bank Statement Apr to May 2020.xlsx
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -682,9 +682,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,9 +709,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,9 +719,6 @@
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -1187,276 +1178,276 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" spans="1:9" ht="20.00" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11">
         <v>938832.26</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="0"/>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9" ht="16.50" customHeight="1">
+      <c r="A5" s="12">
         <v>43924.000000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>43924.000000</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>481949</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>41290.00</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>897542.26</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="0"/>
     </row>
     <row r="6" spans="1:9" ht="10.00" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>43932.000000</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>43932.000000</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19">
         <v>9.00</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>897533.26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="0"/>
     </row>
     <row r="7" spans="1:9" ht="10.00" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>43932.000000</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>43932.000000</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
         <v>50.00</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>897483.26</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="0"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A8" s="13">
+    <row r="8" spans="1:9" ht="16.50" customHeight="1">
+      <c r="A8" s="12">
         <v>43934.000000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>43934.000000</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12">
+      <c r="D8" s="9"/>
+      <c r="E8" s="11">
         <v>116080.00</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1013563.26</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="0"/>
     </row>
     <row r="9" spans="1:9" ht="10.00" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>43941.000000</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>43941.000000</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <v>481950</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>22710.00</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>990853.26</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="0"/>
     </row>
     <row r="10" spans="1:9" ht="10.00" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>43967.000000</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>43967.000000</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19">
         <v>9.00</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>990844.26</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11" spans="1:9" ht="10.00" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>43967.000000</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>43967.000000</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
         <v>50.00</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>990794.26</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="0"/>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:9" ht="16.50" customHeight="1">
+      <c r="A12" s="12">
         <v>43971.000000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>43971.000000</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11">
         <v>175080.00</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1165874.26</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13" spans="1:9" ht="20.00" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" spans="1:9" ht="20.00" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11">
         <v>1165874.26</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" spans="1:9" ht="209.25" customHeight="1">
